--- a/Data/4 - limitdata.xlsx
+++ b/Data/4 - limitdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avaisanen\Documents\My Tableau Repository\TUG-materiaalit\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avaisanen\Documents\GitHub\Tableau\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,21 +50,12 @@
     <t>Issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktia Pankki Oyj                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Amer Sports Oyj                    </t>
   </si>
   <si>
-    <t xml:space="preserve">Bonum Pankki Oyj                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cargotec Oyj                       </t>
   </si>
   <si>
-    <t xml:space="preserve">Danske Bank Oyj                    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fingrid Oyj                        </t>
   </si>
   <si>
@@ -137,7 +128,16 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t xml:space="preserve">Ålandsbanken                   </t>
+    <t xml:space="preserve">Bank A                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank B                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank C                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank D                   </t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +525,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -557,16 +557,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1011</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2">
         <v>43100</v>
@@ -589,17 +589,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <f>B2+3</f>
         <v>1014</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>44302</v>
@@ -622,17 +622,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <f>B3+3</f>
         <v>1017</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
         <v>43252</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -687,13 +687,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -719,16 +719,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2">
         <v>43244</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>43557</v>
@@ -783,16 +783,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>45796</v>
@@ -815,16 +815,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>45783</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>45405</v>
@@ -879,16 +879,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>44601</v>
@@ -911,13 +911,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -943,16 +943,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2">
         <v>45963</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2">
         <v>43923</v>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2">
         <v>45497</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2">
         <v>44115</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2">
         <v>43138</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2">
         <v>45181</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2">
         <v>45311</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2">
         <v>44801</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2">
         <v>44763</v>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2">
         <v>45975</v>
@@ -1295,16 +1295,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2">
         <v>44871</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2">
         <v>45636</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>37</v>
@@ -1423,16 +1423,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2">
         <v>45085</v>
